--- a/FALCON/ExampleDatasets/CNO_data.xlsx
+++ b/FALCON/ExampleDatasets/CNO_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panuwat.trairatphisa\Desktop\FalconV1p2_PT\ExampleDatasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.lucarelli\Desktop\FALCON-annotation\FALCON-annotation\FALCON\ExampleDatasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="11040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>akt</t>
   </si>
@@ -74,6 +74,63 @@
   </si>
   <si>
     <t>mek12i</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>IL1a</t>
+  </si>
+  <si>
+    <t>tnfa_mek12i</t>
+  </si>
+  <si>
+    <t>il1a_mek12i</t>
+  </si>
+  <si>
+    <t>igf1_mek12i</t>
+  </si>
+  <si>
+    <t>tgfa_mek12i</t>
+  </si>
+  <si>
+    <t>tnfa_p38i</t>
+  </si>
+  <si>
+    <t>il1a_p38i</t>
+  </si>
+  <si>
+    <t>igf1_p38i</t>
+  </si>
+  <si>
+    <t>tgfa_p38i</t>
+  </si>
+  <si>
+    <t>tnfa_pi3ki</t>
+  </si>
+  <si>
+    <t>il1a_pi3ki</t>
+  </si>
+  <si>
+    <t>igf1_pi3ki</t>
+  </si>
+  <si>
+    <t>tgfa_pi3ki</t>
+  </si>
+  <si>
+    <t>tnfa_ikki</t>
+  </si>
+  <si>
+    <t>il1a_ikki</t>
+  </si>
+  <si>
+    <t>igf1_ikki</t>
+  </si>
+  <si>
+    <t>tgfa_ikki</t>
+  </si>
+  <si>
+    <t>Annotation</t>
   </si>
 </sst>
 </file>
@@ -406,41 +463,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -463,10 +525,13 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -475,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -489,16 +554,19 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -515,13 +583,16 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -541,19 +612,22 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -567,10 +641,13 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -591,12 +668,15 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -605,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -617,18 +697,21 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -643,15 +726,18 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -669,21 +755,24 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -695,12 +784,15 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -718,15 +810,18 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -735,30 +830,33 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -770,18 +868,21 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -796,24 +897,27 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -822,15 +926,18 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -842,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -853,10 +960,13 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -865,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -879,25 +989,28 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -905,13 +1018,16 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -920,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -931,25 +1047,28 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -957,10 +1076,13 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -975,18 +1097,21 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -995,30 +1120,33 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1027,21 +1155,24 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1053,38 +1184,44 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
     </row>
@@ -1710,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
